--- a/Evaluation study results/IS-Evaluation-Survey-Responses.xlsx
+++ b/Evaluation study results/IS-Evaluation-Survey-Responses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingwu/Documents/GitHub/DietCoach_appendix/Evaluation study results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B84DB-C4EA-E944-9DA3-E7F5DFB463D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB978F2-AD1E-D443-AB73-AD2EF5513437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-700" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -126,6 +126,9 @@
     <t>Ich musste viele Dinge lernen, bevor ich mit der DietCoach-Plattform loslegen konnte.</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>Weiblich</t>
   </si>
   <si>
@@ -190,6 +193,72 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Männlich</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Stimme überhaupt nicht  zu</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Stimme völlig zu</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -197,7 +266,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -230,7 +299,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -328,10 +397,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -350,8 +419,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AG12" totalsRowShown="0">
-  <autoFilter ref="A1:AG12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AG33" totalsRowShown="0">
+  <autoFilter ref="A1:AG33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="31"/>
@@ -688,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -811,94 +880,94 @@
         <v>45533.536828703698</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -912,94 +981,94 @@
         <v>45533.541030092601</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -1013,94 +1082,94 @@
         <v>45533.541087963</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -1114,94 +1183,94 @@
         <v>45533.541574074101</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -1215,94 +1284,94 @@
         <v>45533.541666666701</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -1316,94 +1385,94 @@
         <v>45533.541724536997</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -1417,94 +1486,94 @@
         <v>45533.541886574101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -1518,94 +1587,94 @@
         <v>45533.542222222197</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -1619,94 +1688,94 @@
         <v>45533.542361111096</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -1720,94 +1789,94 @@
         <v>45533.542847222197</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
@@ -1821,94 +1890,2203 @@
         <v>45533.545023148101</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45594.479490740698</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45594.482187499998</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45594.480555555601</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45594.484293981499</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45594.481620370403</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45594.484861111101</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45594.480439814797</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45594.484953703701</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45594.482071759303</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45594.485729166699</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45607.557881944398</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45607.561111111099</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45607.558692129598</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45607.562303240702</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45607.5600231481</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45607.562974537002</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45607.560601851903</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45607.5631712963</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" t="s">
+        <v>37</v>
+      </c>
+      <c r="X21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45607.559930555602</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45607.564814814803</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" t="s">
+        <v>38</v>
+      </c>
+      <c r="S22" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" t="s">
+        <v>40</v>
+      </c>
+      <c r="U22" t="s">
+        <v>40</v>
+      </c>
+      <c r="V22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45607.561585648102</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45607.564872685201</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" t="s">
+        <v>37</v>
+      </c>
+      <c r="T23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45607.5632638889</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45607.565543981502</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45607.563125000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45607.566134259301</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" t="s">
+        <v>37</v>
+      </c>
+      <c r="X25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45607.563101851803</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45607.566250000003</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s">
+        <v>36</v>
+      </c>
+      <c r="U26" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" t="s">
+        <v>37</v>
+      </c>
+      <c r="X26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45608.566585648099</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45608.568159722199</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R27" t="s">
+        <v>38</v>
+      </c>
+      <c r="S27" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27" t="s">
+        <v>38</v>
+      </c>
+      <c r="U27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45608.568078703698</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45608.570416666698</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" t="s">
+        <v>40</v>
+      </c>
+      <c r="S28" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" t="s">
+        <v>40</v>
+      </c>
+      <c r="U28" t="s">
+        <v>36</v>
+      </c>
+      <c r="V28" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28" t="s">
+        <v>36</v>
+      </c>
+      <c r="X28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45608.573379629597</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45608.575995370396</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" t="s">
+        <v>37</v>
+      </c>
+      <c r="T29" t="s">
+        <v>37</v>
+      </c>
+      <c r="U29" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45608.575578703698</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45608.577962962998</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30" t="s">
+        <v>41</v>
+      </c>
+      <c r="X30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45608.571597222202</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45608.578923611101</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" t="s">
+        <v>38</v>
+      </c>
+      <c r="O31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>37</v>
+      </c>
+      <c r="R31" t="s">
+        <v>40</v>
+      </c>
+      <c r="S31" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31" t="s">
+        <v>37</v>
+      </c>
+      <c r="V31" t="s">
+        <v>38</v>
+      </c>
+      <c r="W31" t="s">
+        <v>37</v>
+      </c>
+      <c r="X31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45608.578333333302</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45608.579942129603</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32" t="s">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" t="s">
+        <v>36</v>
+      </c>
+      <c r="W32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45608.575937499998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45608.582303240699</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" t="s">
-        <v>36</v>
-      </c>
-      <c r="V12" t="s">
-        <v>36</v>
-      </c>
-      <c r="W12" t="s">
-        <v>36</v>
-      </c>
-      <c r="X12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>35</v>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" t="s">
+        <v>37</v>
+      </c>
+      <c r="U33" t="s">
+        <v>36</v>
+      </c>
+      <c r="V33" t="s">
+        <v>36</v>
+      </c>
+      <c r="W33" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
